--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_11.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_11.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_9</t>
+          <t>model_1_11_5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9815238970995861</v>
+        <v>0.8471805555505941</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7751548432316495</v>
+        <v>0.6349704028358283</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7925604628527301</v>
+        <v>0.7376697040742188</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9836374082360302</v>
+        <v>0.8562483606252718</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07690727157640094</v>
+        <v>0.3622115217424327</v>
       </c>
       <c r="G2" t="n">
-        <v>1.503540598626709</v>
+        <v>2.44095459704356</v>
       </c>
       <c r="H2" t="n">
-        <v>0.741999196340333</v>
+        <v>0.9383402577420046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06198404602828497</v>
+        <v>0.4161404663097347</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5608300448501408</v>
+        <v>1.327495043305115</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2773216031548948</v>
+        <v>0.6018401131051607</v>
       </c>
       <c r="L2" t="n">
-        <v>2.18247058562649</v>
+        <v>0.7919054373454899</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2816891411846861</v>
+        <v>0.6113184932671728</v>
       </c>
       <c r="N2" t="n">
-        <v>135.1303096961601</v>
+        <v>36.03105384719165</v>
       </c>
       <c r="O2" t="n">
-        <v>276.4654822393766</v>
+        <v>72.99563743541748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_8</t>
+          <t>model_1_11_4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9812166130764255</v>
+        <v>0.8474245753430968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7747139068681391</v>
+        <v>0.6346772408791932</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7922714231542882</v>
+        <v>0.7394495073991476</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9836725136534089</v>
+        <v>0.8677354747237203</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07818634952631733</v>
+        <v>0.3616331478274109</v>
       </c>
       <c r="G3" t="n">
-        <v>1.506489142119828</v>
+        <v>2.442914972397466</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7430330745821747</v>
+        <v>0.9319740044476605</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06185106123968706</v>
+        <v>0.3828869115101232</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5628796049300964</v>
+        <v>1.340665289817253</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2796182210198708</v>
+        <v>0.6013594165117986</v>
       </c>
       <c r="L3" t="n">
-        <v>2.202136763108768</v>
+        <v>0.7922377196161318</v>
       </c>
       <c r="M3" t="n">
-        <v>0.28402192848526</v>
+        <v>0.6108302261829855</v>
       </c>
       <c r="N3" t="n">
-        <v>135.0973204103099</v>
+        <v>36.03424996957771</v>
       </c>
       <c r="O3" t="n">
-        <v>276.4324929535263</v>
+        <v>72.99883355780352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_7</t>
+          <t>model_1_11_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9809038681743052</v>
+        <v>0.847506221732553</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7742669136255933</v>
+        <v>0.6346524752905773</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7919634648144482</v>
+        <v>0.7397175075746156</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9837126467397228</v>
+        <v>0.8693430744892514</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07948815853069126</v>
+        <v>0.3614396301564348</v>
       </c>
       <c r="G4" t="n">
-        <v>1.509478187990947</v>
+        <v>2.443080580002575</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7441346237073319</v>
+        <v>0.9310153833595544</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06169903085811786</v>
+        <v>0.3782331397759196</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5650540130354313</v>
+        <v>1.337641037521606</v>
       </c>
       <c r="K4" t="n">
-        <v>0.281936444133587</v>
+        <v>0.60119849480553</v>
       </c>
       <c r="L4" t="n">
-        <v>2.222152436844468</v>
+        <v>0.79234889767837</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2863766612956443</v>
+        <v>0.6106667701207058</v>
       </c>
       <c r="N4" t="n">
-        <v>135.0642944354308</v>
+        <v>36.0353204990264</v>
       </c>
       <c r="O4" t="n">
-        <v>276.3994669786472</v>
+        <v>72.99990408725223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_6</t>
+          <t>model_1_11_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9805861152744753</v>
+        <v>0.8486161864258753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7738107919024213</v>
+        <v>0.6345154319830304</v>
       </c>
       <c r="D5" t="n">
-        <v>0.791624821730897</v>
+        <v>0.7419041129627424</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9837637271638493</v>
+        <v>0.8812677711823201</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08081081345922973</v>
+        <v>0.3588088000150403</v>
       </c>
       <c r="G5" t="n">
-        <v>1.512528276054045</v>
+        <v>2.443996989231168</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7453459303815404</v>
+        <v>0.9231940226728902</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06150553025589808</v>
+        <v>0.343712845857601</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5673175074649157</v>
+        <v>1.259697563951063</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2842724282431023</v>
+        <v>0.5990065108285888</v>
       </c>
       <c r="L5" t="n">
-        <v>2.242488622433584</v>
+        <v>0.7938603389628941</v>
       </c>
       <c r="M5" t="n">
-        <v>0.288749434819757</v>
+        <v>0.6084402645873079</v>
       </c>
       <c r="N5" t="n">
-        <v>135.0312889849371</v>
+        <v>36.0499312457158</v>
       </c>
       <c r="O5" t="n">
-        <v>276.3664615281535</v>
+        <v>73.01451483394162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_5</t>
+          <t>model_1_11_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9802595156779897</v>
+        <v>0.8484816951814496</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7733542246566135</v>
+        <v>0.6343511619023758</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7912963264839181</v>
+        <v>0.742256848078541</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9838026080250875</v>
+        <v>0.8849223612696919</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08217029299877546</v>
+        <v>0.3591275701720711</v>
       </c>
       <c r="G6" t="n">
-        <v>1.515581343329061</v>
+        <v>2.445095464016899</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7465209388327352</v>
+        <v>0.9219323096164356</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0613582434979462</v>
+        <v>0.3331333294795972</v>
       </c>
       <c r="J6" t="n">
-        <v>0.569629918072285</v>
+        <v>1.259728912444398</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2866536115222961</v>
+        <v>0.5992725341379088</v>
       </c>
       <c r="L6" t="n">
-        <v>2.263390996608656</v>
+        <v>0.7936772019492079</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2911681193552881</v>
+        <v>0.608710477497824</v>
       </c>
       <c r="N6" t="n">
-        <v>134.9979228825641</v>
+        <v>36.04815520989305</v>
       </c>
       <c r="O6" t="n">
-        <v>276.3330954257805</v>
+        <v>73.01273879811886</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_4</t>
+          <t>model_1_11_0</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9799257795096216</v>
+        <v>0.8485006442650862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7728916093705013</v>
+        <v>0.6343021357156964</v>
       </c>
       <c r="D7" t="n">
-        <v>0.790967341850441</v>
+        <v>0.7423682778197492</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9838380605419319</v>
+        <v>0.8858419790214189</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08355947870930634</v>
+        <v>0.3590826571935924</v>
       </c>
       <c r="G7" t="n">
-        <v>1.518674853877441</v>
+        <v>2.44542330235297</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7476976977910577</v>
+        <v>0.9215337318932012</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06122394384251259</v>
+        <v>0.3304711674222114</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5720025516346053</v>
+        <v>1.254636452444625</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2890665644956302</v>
+        <v>0.5992350600503883</v>
       </c>
       <c r="L7" t="n">
-        <v>2.28475011138422</v>
+        <v>0.7937030049567131</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2936190739258842</v>
+        <v>0.6086724132308854</v>
       </c>
       <c r="N7" t="n">
-        <v>134.9643931616656</v>
+        <v>36.04840534823319</v>
       </c>
       <c r="O7" t="n">
-        <v>276.299565704882</v>
+        <v>73.01298893645901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_3</t>
+          <t>model_1_11_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9795849292027591</v>
+        <v>0.8443257807774214</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7724229893309678</v>
+        <v>0.6336387600124334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7906279157324594</v>
+        <v>0.7307785612424913</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9838725635679241</v>
+        <v>0.8236156840868811</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08497827721124528</v>
+        <v>0.3689778878848323</v>
       </c>
       <c r="G8" t="n">
-        <v>1.521808518239598</v>
+        <v>2.449859298735253</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7489118053340207</v>
+        <v>0.9629894760796747</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06109324100630742</v>
+        <v>0.5106074045004091</v>
       </c>
       <c r="J8" t="n">
-        <v>0.574402570229591</v>
+        <v>1.302072941326632</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2915103380863966</v>
+        <v>0.6074355010079937</v>
       </c>
       <c r="L8" t="n">
-        <v>2.306564531023419</v>
+        <v>0.7880180844628717</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2961013345078278</v>
+        <v>0.6170020029361395</v>
       </c>
       <c r="N8" t="n">
-        <v>134.9307192347481</v>
+        <v>35.994037122337</v>
       </c>
       <c r="O8" t="n">
-        <v>276.2658917779645</v>
+        <v>72.95862071056283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_2</t>
+          <t>model_1_11_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9792361062080549</v>
+        <v>0.8452812802798928</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7719515344735339</v>
+        <v>0.6334799339852174</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7902777790540785</v>
+        <v>0.7327408012211856</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9839043259944316</v>
+        <v>0.8322356127095565</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08643026223917047</v>
+        <v>0.3667131700011806</v>
       </c>
       <c r="G9" t="n">
-        <v>1.524961139042108</v>
+        <v>2.450921369110573</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7501642239304982</v>
+        <v>0.9559706574530964</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06097291998779116</v>
+        <v>0.4856539421802615</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5768198967729655</v>
+        <v>1.314812255647793</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2939902417414062</v>
+        <v>0.6055684684667627</v>
       </c>
       <c r="L9" t="n">
-        <v>2.328889202684486</v>
+        <v>0.7893191901683647</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2986202941664096</v>
+        <v>0.6151055664987319</v>
       </c>
       <c r="N9" t="n">
-        <v>134.8968348142002</v>
+        <v>36.00635057925948</v>
       </c>
       <c r="O9" t="n">
-        <v>276.2320073574166</v>
+        <v>72.9709341674853</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_1</t>
+          <t>model_1_11_7</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9788791795455609</v>
+        <v>0.8456858134968628</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7714753192200371</v>
+        <v>0.6334433326741383</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7899395201437389</v>
+        <v>0.7335751447359791</v>
       </c>
       <c r="E10" t="n">
-        <v>0.98392908978993</v>
+        <v>0.8359120504563483</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08791597900061317</v>
+        <v>0.3657543483496428</v>
       </c>
       <c r="G10" t="n">
-        <v>1.528145592635011</v>
+        <v>2.451166122246293</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7513741564394043</v>
+        <v>0.9529862590786963</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06087911087355343</v>
+        <v>0.4750111799483783</v>
       </c>
       <c r="J10" t="n">
-        <v>0.579328349830034</v>
+        <v>1.316613787849737</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2965062882986012</v>
+        <v>0.6047762795858008</v>
       </c>
       <c r="L10" t="n">
-        <v>2.351732509084101</v>
+        <v>0.7898700439106217</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3011759659417566</v>
+        <v>0.6143009014347933</v>
       </c>
       <c r="N10" t="n">
-        <v>134.8627474093691</v>
+        <v>36.01158670059009</v>
       </c>
       <c r="O10" t="n">
-        <v>276.1979199525855</v>
+        <v>72.97617028881591</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_11_0</t>
+          <t>model_1_11_6</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9785140383652825</v>
+        <v>0.8457236049687966</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7709978297699329</v>
+        <v>0.6334224152667532</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7895908592759463</v>
+        <v>0.7336844011054762</v>
       </c>
       <c r="E11" t="n">
-        <v>0.983949876823179</v>
+        <v>0.836470133890615</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0894358889116352</v>
+        <v>0.3656647752811935</v>
       </c>
       <c r="G11" t="n">
-        <v>1.531338566786495</v>
+        <v>2.451305997045793</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7526212961469798</v>
+        <v>0.9525954553800536</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06080036635408576</v>
+        <v>0.4733956081080456</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5818545837021872</v>
+        <v>1.318230126030699</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2990583369706238</v>
+        <v>0.6047022203375753</v>
       </c>
       <c r="L11" t="n">
-        <v>2.37510154462192</v>
+        <v>0.7899215046383614</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3037682068292509</v>
+        <v>0.6142256758274404</v>
       </c>
       <c r="N11" t="n">
-        <v>134.8284664707887</v>
+        <v>36.01207655963808</v>
       </c>
       <c r="O11" t="n">
-        <v>276.1636390140051</v>
+        <v>72.9766601478639</v>
       </c>
     </row>
   </sheetData>
